--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.873756347785314</v>
+        <v>-2.873756347806232</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.84741672005369</v>
+        <v>16.84741672001265</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.24792083565372</v>
+        <v>23.2479208356145</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-7.079686345741646</v>
+        <v>-7.079686345728003</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.64807644010019</v>
+        <v>14.64807644012827</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.91599479896407</v>
+        <v>19.91599479895509</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.96431298313674</v>
+        <v>1.964312983107181</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.72788777369393</v>
+        <v>25.72788777366391</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.60781055065577</v>
+        <v>32.60781055071921</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.4829707466799</v>
+        <v>27.48297074667729</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.57885891429733</v>
+        <v>36.57885891427641</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.25963224704851</v>
+        <v>40.25963224704203</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.816961177022865</v>
+        <v>5.816961177029459</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.0795049153041</v>
+        <v>29.07950491534526</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.86727611837428</v>
+        <v>37.86727611839952</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.288966099956571</v>
+        <v>2.288966099962142</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.01866648438746</v>
+        <v>22.01866648441201</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.42005895808923</v>
+        <v>28.4200589581189</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.927859671634717</v>
+        <v>-1.9278596715756</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.80775372648869</v>
+        <v>19.80775372642139</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.07724518947972</v>
+        <v>25.07724518948494</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.122536871341556</v>
+        <v>7.122536871357131</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.8946246681896</v>
+        <v>30.89462466822234</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.198551162376663</v>
+        <v>9.19855116246352</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.92099926820613</v>
+        <v>28.92099926819136</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.32123740044661</v>
+        <v>35.32123740044979</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.99572665745173</v>
+        <v>4.995726657473671</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.72497271830567</v>
+        <v>26.72497271827134</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.99265354655968</v>
+        <v>31.99265354660027</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.04072197306091</v>
+        <v>14.04072197306046</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.80562887931542</v>
+        <v>37.80562887930678</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.68529986766994</v>
+        <v>44.68529986767517</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.56201389453686</v>
+        <v>39.56201389450037</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.65803053118016</v>
+        <v>48.65803053115185</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.33864366744281</v>
+        <v>52.33864366747521</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.89443859895535</v>
+        <v>17.89443859893113</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.15870377108395</v>
+        <v>41.15870377109441</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.94612815160515</v>
+        <v>49.94612815160299</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.36453302511685</v>
+        <v>14.36453302512401</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.09550860387556</v>
+        <v>34.09550860389341</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.49663508775537</v>
+        <v>40.49663508769454</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.15081328646075</v>
+        <v>10.15081328645973</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.88791010958876</v>
+        <v>31.88791010955591</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.15716403745496</v>
+        <v>37.15716403744189</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19.20220607145923</v>
+        <v>19.2022060714033</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.97562614989029</v>
+        <v>42.97562614989961</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.05045615763364</v>
+        <v>12.0504561576599</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.77352410973795</v>
+        <v>31.77352410979411</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.1739688902472</v>
+        <v>38.17396889021411</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.849690136346982</v>
+        <v>7.849690136393253</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.57960208123696</v>
+        <v>29.57960208122434</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.84753038283573</v>
+        <v>34.84753038282561</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.89469128513186</v>
+        <v>16.8946912851413</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.66020497100801</v>
+        <v>40.66020497103655</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.54008116875396</v>
+        <v>47.54008116880932</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.41703272072432</v>
+        <v>42.41703272079174</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.51307126283378</v>
+        <v>51.51307126282377</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55.19386729463254</v>
+        <v>55.19386729466983</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.74863892054244</v>
+        <v>20.74863892061849</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.01391204793829</v>
+        <v>44.01391204795114</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.80151391177215</v>
+        <v>52.80151391177556</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17.21756735218294</v>
+        <v>17.21756735222933</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.94916279835782</v>
+        <v>36.94916279846503</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>43.35049597461314</v>
+        <v>43.35049597465316</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13.00590629670417</v>
+        <v>13.00590629675238</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.74366902875768</v>
+        <v>34.74366902878133</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40.01317047216124</v>
+        <v>40.01317047217192</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.05730496214615</v>
+        <v>22.0573049621723</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.83133184355741</v>
+        <v>45.83133184366905</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.398838874176779</v>
+        <v>3.398838874158475</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.12113482409594</v>
+        <v>23.12113482402306</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.52208763897712</v>
+        <v>29.52208763891879</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.8035666272212829</v>
+        <v>-0.8035666271539803</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.92540307719078</v>
+        <v>20.92540307716066</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.19383820748893</v>
+        <v>26.19383820755361</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.240414226604418</v>
+        <v>8.240414226615218</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.00509731878863</v>
+        <v>32.00509731872894</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.88546560169523</v>
+        <v>38.88546560168534</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.76067158194935</v>
+        <v>33.7606715820303</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.85661478671462</v>
+        <v>42.85661478671734</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.53777215830412</v>
+        <v>46.53777215831686</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.09321182580284</v>
+        <v>12.09321182581046</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.35756283124836</v>
+        <v>35.35756283127326</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.14575897672599</v>
+        <v>44.14575897677248</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.563475398472253</v>
+        <v>8.563475398457815</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.29429873099305</v>
+        <v>28.29429873102125</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.69613999354415</v>
+        <v>34.69613999352835</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.350174400831481</v>
+        <v>4.350174400809653</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.08699479593777</v>
+        <v>26.08699479589321</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.35700311620549</v>
+        <v>31.35700311621482</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.40055255733838</v>
+        <v>13.40055255736396</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.17374872387968</v>
+        <v>37.17374872388878</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.77577628364573</v>
+        <v>37.77577628367767</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.65094276124144</v>
+        <v>32.6509427612735</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.75193828534255</v>
+        <v>41.75193828535494</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.43361125225768</v>
+        <v>45.4336112522313</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.98039646561138</v>
+        <v>10.98039646561672</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.25797404650184</v>
+        <v>34.25797404648638</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.04478767621818</v>
+        <v>43.0447876762026</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.38952114627883</v>
+        <v>12.38952114630122</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.12162286489975</v>
+        <v>32.12162286488019</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.52429503424578</v>
+        <v>38.52429503422725</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.181489686337347</v>
+        <v>8.181489686357924</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.92021656278537</v>
+        <v>29.92021656283858</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.19030361756593</v>
+        <v>35.19030361754695</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.2354792110511</v>
+        <v>17.23547921103553</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.01005064551505</v>
+        <v>41.01005064550596</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.89246022849757</v>
+        <v>47.89246022848768</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.77597712959273</v>
+        <v>42.77597712959853</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.87707232167016</v>
+        <v>51.8770723216805</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>55.56102889896404</v>
+        <v>55.5610288989089</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.09999381522887</v>
+        <v>21.0999938152258</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.38066178337586</v>
+        <v>44.38066178335153</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>53.1688424554762</v>
+        <v>53.16884245544777</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>49.85652597209317</v>
+        <v>49.85652597210112</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.73324620755064</v>
+        <v>44.73324620750914</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.83437019610501</v>
+        <v>53.83437019612957</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>57.51588292921288</v>
+        <v>57.51588292921015</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.06113412143914</v>
+        <v>23.06113412143846</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.34043336529585</v>
+        <v>46.34043336530245</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>55.12690015265078</v>
+        <v>55.12690015268318</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.46718136595105</v>
+        <v>24.46718136602609</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.2005582586366</v>
+        <v>44.2005582586623</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.60296441550663</v>
+        <v>50.60296441548572</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.26225604552083</v>
+        <v>20.2622560455563</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.00246631075431</v>
+        <v>42.00246631075761</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.27231580310873</v>
+        <v>47.27231580311418</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.31724197670004</v>
+        <v>29.31724197670208</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.09314568005432</v>
+        <v>53.09314568006319</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>59.97530343811043</v>
+        <v>59.97530343809679</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.86037415548465</v>
+        <v>54.86037415543554</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.96159779411012</v>
+        <v>63.96159779410307</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>67.64539414492681</v>
+        <v>67.64539414485019</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.18282505708812</v>
+        <v>33.18282505704072</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.46521462600681</v>
+        <v>56.46521462599146</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>65.25304848091533</v>
+        <v>65.25304848087133</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.7124369189914</v>
+        <v>52.71243691901198</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.58939441345645</v>
+        <v>47.5893944135574</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.69054027231307</v>
+        <v>56.69054027239493</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.37223592667381</v>
+        <v>60.37223592669928</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.91646394519292</v>
+        <v>25.91646394520906</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.19677118451507</v>
+        <v>49.19677118449302</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>57.98341549141442</v>
+        <v>57.98341549140794</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.32202260982872</v>
+        <v>27.32202260989921</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>47.05601939476124</v>
+        <v>47.05601939477567</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>53.45863220736415</v>
+        <v>53.45863220740507</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.11915600833159</v>
+        <v>23.11915600839605</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.86003220208268</v>
+        <v>44.86003220212781</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>50.13012917510623</v>
+        <v>50.13012917513795</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.17414792223413</v>
+        <v>32.1741479222871</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>55.95065845436609</v>
+        <v>55.95065845436825</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.83302142446412</v>
+        <v>62.83302142450039</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>57.71832940884936</v>
+        <v>57.71832940889995</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>66.81957492025806</v>
+        <v>66.8195749202509</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>70.50355414717895</v>
+        <v>70.50355414723022</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.03996183793375</v>
+        <v>36.03996183786781</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>59.32335940134756</v>
+        <v>59.32335940131664</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>68.1113707659202</v>
+        <v>68.11137076591451</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.05534593528883</v>
+        <v>44.0553459352894</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.93055766765947</v>
+        <v>38.93055766758955</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.03160818351667</v>
+        <v>48.0316081835759</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.71366525178605</v>
+        <v>51.71366525177957</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.25856140274751</v>
+        <v>17.25856140275114</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.53794636768448</v>
+        <v>40.53794636770631</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>49.3251850083188</v>
+        <v>49.32518500831539</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.66731085637067</v>
+        <v>18.66731085641455</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.40053558931591</v>
+        <v>38.40053558929147</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.80365648379821</v>
+        <v>44.80365648384914</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.46280427382745</v>
+        <v>14.46280427384211</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.20273821009421</v>
+        <v>36.2027382100742</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.47334206194633</v>
+        <v>41.473342061971</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.5167756013703</v>
+        <v>23.51677560138042</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.29245547315084</v>
+        <v>47.2924554731572</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.17531058102709</v>
+        <v>54.17531058098685</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.0588727854642</v>
+        <v>49.05887278549353</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.16002297920859</v>
+        <v>58.16002297919961</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.84436357976411</v>
+        <v>61.84436357979401</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.38143929983592</v>
+        <v>27.38143929977874</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.66391467085948</v>
+        <v>50.66391467076762</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>59.45252033563789</v>
+        <v>59.45252033559923</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-8.334728811549933</v>
+        <v>-8.334728811591656</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.38490508728269</v>
+        <v>11.38490508725654</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17.78500787508172</v>
+        <v>17.78500787507069</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-12.54307495585685</v>
+        <v>-12.54307495589175</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9.183084540355441</v>
+        <v>9.183084540317697</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.45046377596164</v>
+        <v>14.45046377597381</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-3.498761061036515</v>
+        <v>-3.498761061054591</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.26308929522164</v>
+        <v>20.26308929528507</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.14265038210756</v>
+        <v>27.14265038212223</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.01703068698005</v>
+        <v>22.017030686968</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.11234716826626</v>
+        <v>31.11234716826546</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.79297833859057</v>
+        <v>34.79297833862127</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.3507694407143909</v>
+        <v>0.3507694407041591</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.61156031247659</v>
+        <v>23.61156031248159</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.39854561224361</v>
+        <v>32.39854561227283</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-3.166882811240082</v>
+        <v>-3.166882811225985</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.56127811689756</v>
+        <v>16.56127811690449</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.96226933043109</v>
+        <v>22.96226933047042</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-7.386124003727598</v>
+        <v>-7.386124003836283</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.34788584821486</v>
+        <v>14.34788584818189</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.61683821746916</v>
+        <v>19.61683821745619</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.664587687490513</v>
+        <v>1.664587687503815</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.43495078504926</v>
+        <v>25.43495078507688</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3.73641796124237</v>
+        <v>3.736417961236572</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.45732684292235</v>
+        <v>23.45732684289858</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.85716366189338</v>
+        <v>29.85716366189304</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.4688228212767562</v>
+        <v>-0.4688228212573158</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.25881989771297</v>
+        <v>21.25881989772138</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.52596161273637</v>
+        <v>26.52596161276206</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>8.576486987777418</v>
+        <v>8.576486987742403</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.33966939976763</v>
+        <v>32.33966939976365</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.21897871278004</v>
+        <v>39.21897871277891</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.09491283378846</v>
+        <v>34.09491283387554</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.19035776256869</v>
+        <v>43.19035776259916</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.87082875214658</v>
+        <v>46.87082875219524</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.42708589457569</v>
+        <v>12.42708589454795</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.68959816124625</v>
+        <v>35.68959816124409</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.47623665519866</v>
+        <v>44.47623665523277</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>8.907523208931782</v>
+        <v>8.90752320891416</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.63695927570867</v>
+        <v>28.63695927575289</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.03768451405161</v>
+        <v>35.03768451408128</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.691387917985896</v>
+        <v>4.691387917959293</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.42688114288201</v>
+        <v>26.42688114285427</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.69559598691861</v>
+        <v>31.69559598691383</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.74309577826871</v>
+        <v>13.74309577828099</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.51479109751547</v>
+        <v>37.51479109750899</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.587920941174009</v>
+        <v>6.587920941203908</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.30944965548425</v>
+        <v>26.30944965551017</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.70949310056888</v>
+        <v>32.70949310058809</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.384738574685191</v>
+        <v>2.38473857471293</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.11304716870707</v>
+        <v>24.11304716876858</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.38043633400533</v>
+        <v>29.38043633405626</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>11.43005418351125</v>
+        <v>11.43005418354092</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.19384336036929</v>
+        <v>35.19384336040362</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.07335786090637</v>
+        <v>42.07335786097379</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.9495295431022</v>
+        <v>36.94952954309822</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>46.04499636703572</v>
+        <v>46.04499636703299</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>49.72565023707416</v>
+        <v>49.72565023711566</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.28088411358916</v>
+        <v>15.28088411362065</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.54440432381462</v>
+        <v>38.54440432378347</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.33122027770908</v>
+        <v>47.33122027774512</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.76015538342263</v>
+        <v>11.76015538344207</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.49021130408206</v>
+        <v>31.49021130408603</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.89114321260236</v>
+        <v>37.89114321261793</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>7.546078707950489</v>
+        <v>7.546078707892622</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.28223783245763</v>
+        <v>29.28223783245672</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.5512001690815</v>
+        <v>34.55120016915596</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>16.59779241513407</v>
+        <v>16.59779241512054</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>40.37009452263653</v>
+        <v>40.37009452262846</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2.062824449866564</v>
+        <v>-2.06282444982018</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.65793230366917</v>
+        <v>17.65793230376183</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.05848374630746</v>
+        <v>24.05848374631463</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-6.267646219630972</v>
+        <v>-6.267646219621195</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.45972017351149</v>
+        <v>15.45972017350944</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.72761613607164</v>
+        <v>20.72761613609517</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2.776649145204676</v>
+        <v>2.776649145178641</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.53960777310973</v>
+        <v>26.53960777306857</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.41961432214141</v>
+        <v>33.41961432215972</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.29404048262798</v>
+        <v>28.2940404826032</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.38941198468906</v>
+        <v>37.38941198464802</v>
       </c>
     </row>
     <row r="262">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.626329075805831</v>
+        <v>6.626329075760015</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.88892718751454</v>
+        <v>29.88892718741768</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.67633737817046</v>
+        <v>38.67633737813965</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.106935398687785</v>
+        <v>3.106935398687103</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.83621924698658</v>
+        <v>22.83621924697725</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.23765920475838</v>
+        <v>29.23765920478384</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.10878114162055</v>
+        <v>-1.108781141652837</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.62643568523602</v>
+        <v>20.62643568524637</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.89590486737821</v>
+        <v>25.89590486738924</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>7.941912107183118</v>
+        <v>7.941912107149808</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.71338354431994</v>
+        <v>31.71338354435769</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.31574078033744</v>
+        <v>32.31574078033312</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.19012726826982</v>
+        <v>27.19012726826778</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.29055098060651</v>
+        <v>36.29055098061731</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.9720818365051</v>
+        <v>39.97208183649737</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>5.519329322588721</v>
+        <v>5.519329322582809</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.7951535627321</v>
+        <v>28.79515356274336</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.58118155216432</v>
+        <v>37.5811815521234</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.934228350003497</v>
+        <v>6.93422835005261</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.66479067581618</v>
+        <v>26.66479067581891</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.06706165567137</v>
+        <v>33.06706165563408</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2.72378063042591</v>
+        <v>2.723780630385892</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.46090399328292</v>
+        <v>24.46090399324472</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.73045203151976</v>
+        <v>29.73045203144359</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.7780853855664</v>
+        <v>11.77808538560722</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.55093215427731</v>
+        <v>35.55093215429811</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.43298020588425</v>
+        <v>42.43298020590392</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.31571661692131</v>
+        <v>37.31571661689038</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.41623993759306</v>
+        <v>46.41623993753758</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>50.10005446541057</v>
+        <v>50.10005446543785</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.63948171560977</v>
+        <v>15.63948171564603</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.91839644605518</v>
+        <v>38.91839644603574</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.70579139500281</v>
+        <v>47.7057913950036</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.39532931446111</v>
+        <v>44.39532931440245</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.27126954582373</v>
+        <v>39.27126954580361</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.37182170082731</v>
+        <v>48.37182170082401</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>52.0531923389412</v>
+        <v>52.05319233888481</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.59890584287492</v>
+        <v>17.59890584286594</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.87645170689355</v>
+        <v>40.87645170691844</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.66213287066871</v>
+        <v>49.66213287070475</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.01072762225268</v>
+        <v>19.01072762227621</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.74256506657828</v>
+        <v>38.74256506658612</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.14457004842866</v>
+        <v>45.14457004847425</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.80338591080097</v>
+        <v>14.80338591077403</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.54199261008087</v>
+        <v>36.54199261010611</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.81130309576641</v>
+        <v>41.81130309573673</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.85868699978399</v>
+        <v>23.85868699975557</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.63286597738177</v>
+        <v>47.63286597738768</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.51466221883216</v>
+        <v>54.51466221888298</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.39895243154702</v>
+        <v>49.39895243154554</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>58.49960417734958</v>
+        <v>58.49960417734765</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>62.18325849431479</v>
+        <v>62.18325849431831</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.72115177931785</v>
+        <v>27.72115177931831</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.00178807166306</v>
+        <v>51.00178807167352</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>59.78883622025428</v>
+        <v>59.78883622030214</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>47.25083797090629</v>
+        <v>47.25083797094437</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.12701549683545</v>
+        <v>42.12701549687775</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.22758951228759</v>
+        <v>51.22758951228475</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.90914305638667</v>
+        <v>54.90914305641532</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.45383342668932</v>
+        <v>20.45383342667613</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.7323872745654</v>
+        <v>43.73238727464305</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.51824593474551</v>
+        <v>52.51824593475676</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.86516666232895</v>
+        <v>21.86516666241979</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.59762398519838</v>
+        <v>41.59762398520554</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.99983560075778</v>
+        <v>47.99983560079768</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.65988360164052</v>
+        <v>17.65988360167667</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.39915622059853</v>
+        <v>39.39915622062377</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.66871416389081</v>
+        <v>44.66871416391309</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.71519064022501</v>
+        <v>26.71519064022216</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>50.48997643203866</v>
+        <v>50.48997643210085</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.37197786387033</v>
+        <v>57.37197786389386</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>52.25650537891336</v>
+        <v>52.25650537900999</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>61.35717898728679</v>
+        <v>61.35717898723358</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.04101616516648</v>
+        <v>65.04101616518308</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.57788626849124</v>
+        <v>30.57788626856378</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>53.85953054392242</v>
+        <v>53.85953054399063</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>62.64675617898577</v>
+        <v>62.64675617903056</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.5946190919645</v>
+        <v>38.59461909196371</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.46905090589458</v>
+        <v>33.46905090593266</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.56952959397104</v>
+        <v>42.56952959397559</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.25144451825982</v>
+        <v>46.25144451823128</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.7968030178301</v>
+        <v>11.79680301781726</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.07443461474902</v>
+        <v>35.07443461472424</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.86088756365616</v>
+        <v>43.86088756360671</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.21132690195062</v>
+        <v>13.21132690191242</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.94301221414328</v>
+        <v>32.9430122141451</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.34573187464123</v>
+        <v>39.34573187471013</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.004403937921172</v>
+        <v>9.004403937856484</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.74273433861125</v>
+        <v>30.74273433860568</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.01279912928847</v>
+        <v>36.01279912931041</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>18.05869044062418</v>
+        <v>18.05869044064407</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.83264561676158</v>
+        <v>41.83264561678057</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.71513914947339</v>
+        <v>48.71513914952079</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.59792093472682</v>
+        <v>43.59792093476956</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.69849924101591</v>
+        <v>52.69849924102682</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.3826977590431</v>
+        <v>56.38269775901013</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.92023588833839</v>
+        <v>21.92023588838022</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.20095799459848</v>
+        <v>45.20095799464657</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>53.98877788500938</v>
+        <v>53.98877788505008</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.009216958339077763</v>
+        <v>-0.009216958298377875</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.71236822807255</v>
+        <v>19.7123682280181</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.11246525867564</v>
+        <v>26.11246525867508</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-4.215086810537098</v>
+        <v>-4.215086810521637</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.51318632338571</v>
+        <v>17.51318632338355</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.78064261466087</v>
+        <v>22.78064261466712</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.829360656833234</v>
+        <v>4.829360656822093</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.59330118713406</v>
+        <v>28.59330118713133</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.47283784690815</v>
+        <v>35.47283784695112</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.3479948232784</v>
+        <v>30.34799482330239</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.4440657663982</v>
+        <v>39.44406576642503</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>43.12456897397097</v>
+        <v>43.12456897398086</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.681334846616966</v>
+        <v>8.681334846634133</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.94426404729912</v>
+        <v>31.94426404734914</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.73149136609011</v>
+        <v>40.73149136613365</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5.15583710854715</v>
+        <v>5.155837108578186</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.88594943655228</v>
+        <v>24.88594943652773</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.28693470101014</v>
+        <v>31.28693470103368</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.9390715762658211</v>
+        <v>0.9390715762602504</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.67519517859485</v>
+        <v>22.67519517858939</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.94422443781078</v>
+        <v>27.94422443782397</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.989916414279453</v>
+        <v>9.989916414274905</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.76236977800325</v>
+        <v>33.76236977797733</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.06286646805548</v>
+        <v>12.0628664680764</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.78572668132275</v>
+        <v>31.78572668128807</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.18555772139457</v>
+        <v>38.18555772137047</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.860102068522526</v>
+        <v>7.860102068541625</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.58985846600293</v>
+        <v>29.58985846598383</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.8570772168916</v>
+        <v>34.85707721687591</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.90554550614452</v>
+        <v>16.90554550613463</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.67081813948171</v>
+        <v>40.67081813946818</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>47.55010300357158</v>
+        <v>47.55010300353918</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.42681380867175</v>
+        <v>42.42681380865163</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>51.52301321397927</v>
+        <v>51.5230132140028</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.20335622389537</v>
+        <v>55.20335622391151</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.75858811362919</v>
+        <v>20.75858811364749</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.02323873612609</v>
+        <v>44.02323873613553</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>52.81011922734042</v>
+        <v>52.81011922733769</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.23117987359327</v>
+        <v>17.23117987366239</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.96256738443908</v>
+        <v>36.96256738450639</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.36328665182562</v>
+        <v>43.36328665188815</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>13.01752033396709</v>
+        <v>13.01752033397982</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.75512734990544</v>
+        <v>34.75512734986894</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.02391906394776</v>
+        <v>40.0239190639614</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.06936139701516</v>
+        <v>22.06936139700572</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>45.84314702991567</v>
+        <v>45.84314702993181</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.91476820717226</v>
+        <v>14.91476820715521</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.63824826256469</v>
+        <v>34.63824826261073</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>41.03828593774092</v>
+        <v>41.03828593780322</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.7140622767375</v>
+        <v>10.7140622768048</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.44448455556569</v>
+        <v>32.44448455561106</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.71195076435136</v>
+        <v>37.71195076439274</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.75951154107891</v>
+        <v>19.75951154113155</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.52539094990932</v>
+        <v>43.52539094997105</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.40488101019317</v>
+        <v>50.40488101023352</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>45.2818293541264</v>
+        <v>45.2818293541098</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>54.3780506603219</v>
+        <v>54.37805066034237</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>58.05857655883695</v>
+        <v>58.0585765588058</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.61278516145326</v>
+        <v>23.61278516147793</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>46.87844373115202</v>
+        <v>46.87844373118124</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>55.66550169367936</v>
+        <v>55.66550169374678</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.08421091244425</v>
+        <v>20.08421091247017</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.81621828676505</v>
+        <v>39.81621828680689</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.21714423345436</v>
+        <v>46.21714423348233</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>15.87261004097316</v>
+        <v>15.87261004095486</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>37.61088296312046</v>
+        <v>37.61088296309602</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.87992217762447</v>
+        <v>42.87992217757683</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.92445697859712</v>
+        <v>24.92445697861963</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.69884940988466</v>
+        <v>48.69884940991979</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.263381997508265</v>
+        <v>6.263381997514404</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.98609006151192</v>
+        <v>25.98609006151931</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.38663576683139</v>
+        <v>32.38663576679637</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.061036615685186</v>
+        <v>2.061036615713494</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.79051666591768</v>
+        <v>23.79051666593326</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.0584897004464</v>
+        <v>29.05848970048631</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.10546559989276</v>
+        <v>11.1054655999064</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.87051442647835</v>
+        <v>34.87051442650382</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.75049656748452</v>
+        <v>41.75049656754022</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.62569935370523</v>
+        <v>36.62569935367021</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.72182532849168</v>
+        <v>45.72182532849645</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>49.40271256112062</v>
+        <v>49.40271256116087</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.95758920123531</v>
+        <v>14.95758920128647</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.22232565694976</v>
+        <v>38.22232565693999</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>47.00997789426079</v>
+        <v>47.00997789426238</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.43035009358444</v>
+        <v>11.43035009361775</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.16158536522456</v>
+        <v>31.16158536527276</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.56301939383054</v>
+        <v>37.563019393875</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.217109309215477</v>
+        <v>7.217109309261975</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.95443990623274</v>
+        <v>28.9544399062374</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.223985994486</v>
+        <v>34.22398599448975</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.267935752567</v>
+        <v>16.26793575255984</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.04149748039113</v>
+        <v>40.04149748040295</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>40.64313514902058</v>
+        <v>40.64313514902831</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>35.51829846271671</v>
+        <v>35.51829846268272</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>44.6194766876725</v>
+        <v>44.6194766876426</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>48.30087947048874</v>
+        <v>48.30087947050067</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.84710193649854</v>
+        <v>13.84710193651673</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.12506467870783</v>
+        <v>37.12506467863712</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>45.91133438609536</v>
+        <v>45.91133438609377</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.25521338420704</v>
+        <v>15.25521338422148</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.98772698255273</v>
+        <v>34.98772698254193</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.38999195307424</v>
+        <v>41.38999195304798</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.04724195791558</v>
+        <v>11.04724195787033</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.78647894443095</v>
+        <v>32.78647894439707</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.05610379509092</v>
+        <v>38.05610379504294</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.10167971075539</v>
+        <v>20.10167971076233</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>43.87661663903016</v>
+        <v>43.87661663904153</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.75863999958933</v>
+        <v>50.75863999961537</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.64215365301875</v>
+        <v>45.6421536529826</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>54.74343153957041</v>
+        <v>54.74343153954881</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>58.42711791116797</v>
+        <v>58.42711791123754</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.96552017497682</v>
+        <v>23.9655201749941</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.24657327365601</v>
+        <v>47.24657327361781</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.03420999673013</v>
+        <v>56.03420999674331</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>52.72366060048144</v>
+        <v>52.72366060050838</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.60037767034164</v>
+        <v>47.60037767033084</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>56.70168435301566</v>
+        <v>56.70168435305318</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.38292690110457</v>
+        <v>60.38292690109184</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.92761536151245</v>
+        <v>25.92761536150768</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.20729975431875</v>
+        <v>49.20729975433672</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>57.99322261447624</v>
+        <v>57.99322261447976</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.33264938888347</v>
+        <v>27.33264938885084</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.06643814992636</v>
+        <v>47.06643814991772</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>53.46843710065487</v>
+        <v>53.46843710067124</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.12778406166338</v>
+        <v>23.12778406165701</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.86850442544274</v>
+        <v>44.86850442543012</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>50.13789170371395</v>
+        <v>50.13789170370667</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.1832182046381</v>
+        <v>32.18321820462911</v>
       </c>
     </row>
     <row r="490">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.84125891736615</v>
+        <v>62.84125891739343</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.72632638563955</v>
+        <v>57.72632638560022</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.82773271163997</v>
+        <v>66.8277327115954</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>70.51125885570509</v>
+        <v>70.5112588556794</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.04812713083125</v>
+        <v>36.04812713082761</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>59.33090181807934</v>
+        <v>59.33090181806251</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>68.11819171903808</v>
+        <v>68.11819171905809</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>55.57956822049762</v>
+        <v>55.57956822056094</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.45652256304955</v>
+        <v>50.45652256305341</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>59.55785111151461</v>
+        <v>59.55785111151756</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>63.23927657386623</v>
+        <v>63.23927657387624</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.78294187910315</v>
+        <v>28.78294187916307</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>52.06363425942898</v>
+        <v>52.06363425941898</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>60.84973462705769</v>
+        <v>60.84973462708815</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.18748731363413</v>
+        <v>30.18748731358956</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>49.92189596260944</v>
+        <v>49.92189596261308</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>56.32410155601254</v>
+        <v>56.32410155604528</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.98468069014639</v>
+        <v>25.98468069014287</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.72606697996305</v>
+        <v>47.72606698005957</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.99570172370314</v>
+        <v>52.99570172368688</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.0401208098486</v>
+        <v>35.04012080991045</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>58.81699681865287</v>
+        <v>58.81699681873006</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>65.69897354620942</v>
+        <v>65.69897354622999</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>60.58427829446994</v>
+        <v>60.58427829453872</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>69.68570648895214</v>
+        <v>69.68570648896134</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>73.36941550207105</v>
+        <v>73.36941550205229</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.90526057385485</v>
+        <v>38.90526057385325</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>62.18904324789976</v>
+        <v>62.18904324790772</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>70.97651064650252</v>
+        <v>70.97651064649865</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.92270842288015</v>
+        <v>46.92270842285934</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>41.79791701709082</v>
+        <v>41.79791701707411</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.89915022863779</v>
+        <v>50.8991502286237</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>54.58093709922112</v>
+        <v>54.58093709925727</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.125270533137</v>
+        <v>20.12527053315542</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.40504064705574</v>
+        <v>43.40504064703028</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.19173534145246</v>
+        <v>52.19173534142699</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.53300672966039</v>
+        <v>21.53300672965505</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.26664333754964</v>
+        <v>41.26664333760432</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.66935700868721</v>
+        <v>47.66935700871188</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.32856015455066</v>
+        <v>17.3285601545236</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.0690041985501</v>
+        <v>39.06900419857227</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.33914581797428</v>
+        <v>44.3391458180002</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.38297970213997</v>
+        <v>26.3829797021328</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.15902506223036</v>
+        <v>50.15902506221126</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>57.04149392297445</v>
+        <v>57.04149392303925</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.92505290528364</v>
+        <v>51.92505290530035</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>61.02638578813669</v>
+        <v>61.02638578814727</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.7104561694476</v>
+        <v>64.71045616950433</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.2469692668911</v>
+        <v>30.24696926692566</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.52982975613072</v>
+        <v>53.52982975614528</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>62.31789144800423</v>
+        <v>62.31789144800833</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-12.25619937595426</v>
+        <v>-12.25619937593369</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.461284148465058</v>
+        <v>7.461284148448346</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.86125954156974</v>
+        <v>13.86125954160407</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-16.46599479884337</v>
+        <v>-16.46599479881449</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.257710806876009</v>
+        <v>5.257710806885786</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.5251161637852</v>
+        <v>10.52511616380874</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-7.422643593786045</v>
+        <v>-7.422643593789683</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.33686533701242</v>
+        <v>16.33686533704402</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.21629317988398</v>
+        <v>23.21629317992127</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.09070707910833</v>
+        <v>18.09070707911345</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.18528343367491</v>
+        <v>27.18528343367469</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.86590958041412</v>
+        <v>30.86590958047539</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-3.573625931944814</v>
+        <v>-3.573625931945156</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.68492253785583</v>
+        <v>19.68492253789744</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.47162500762586</v>
+        <v>28.47162500763769</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-7.08668281566251</v>
+        <v>-7.086682815594298</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.63932740673552</v>
+        <v>12.63932740670881</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.04019146292463</v>
+        <v>19.04019146294873</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-11.30737251475163</v>
+        <v>-11.30737251470957</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.42418318900453</v>
+        <v>10.42418318902238</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.69316188621697</v>
+        <v>15.69316188620094</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2.257623786286143</v>
+        <v>-2.257623786265679</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.51039755601069</v>
+        <v>21.51039755600455</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.185604971556625</v>
+        <v>-0.185604971502169</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.53315348042891</v>
+        <v>19.53315348047393</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.93286292844671</v>
+        <v>25.93286292852106</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-4.392295159160238</v>
+        <v>-4.392295159115218</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>17.33289360472846</v>
+        <v>17.33289360476552</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.60006146537861</v>
+        <v>22.60006146538588</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.652051912743065</v>
+        <v>4.652051912750228</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.41289284153273</v>
+        <v>28.4128928415549</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.2920689342521</v>
+        <v>35.2920689342197</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.1680365723682</v>
+        <v>30.16803657232954</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.26274137024321</v>
+        <v>39.26274137026014</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.94320735119045</v>
+        <v>42.94320735109018</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.502137939028405</v>
+        <v>8.502137938998732</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.76240773158948</v>
+        <v>31.76240773158982</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.54876342130156</v>
+        <v>40.54876342133782</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>4.9871707497086</v>
+        <v>4.987170749769081</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.71445605560287</v>
+        <v>24.71445605563993</v>
       </c>
     </row>
     <row r="582">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.7695868259521212</v>
+        <v>0.7695868259927074</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.50262583818706</v>
+        <v>22.50262583816694</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.77136703441234</v>
+        <v>27.77136703441018</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.820331676316489</v>
+        <v>9.820331676311714</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.58968518257775</v>
+        <v>33.58968518262391</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.665732683272001</v>
+        <v>2.665732683351582</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.38511093737437</v>
+        <v>22.38511093744554</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.78502701632268</v>
+        <v>28.78502701633973</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.538899171687074</v>
+        <v>-1.538899171673318</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.1869554345446</v>
+        <v>20.18695543459122</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.45437075057062</v>
+        <v>25.45437075059757</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.505453699438664</v>
+        <v>7.505453699408083</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.26690136361727</v>
+        <v>31.26690136367809</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.146282648526</v>
+        <v>38.14628264854385</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.0224878345103</v>
+        <v>33.02248783450791</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.11721452510751</v>
+        <v>42.11721452514742</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>45.7978633860367</v>
+        <v>45.7978633860982</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.35577075351917</v>
+        <v>11.35577075352827</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.61704844164292</v>
+        <v>34.61704844166123</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>43.40358159582179</v>
+        <v>43.4035815958775</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>7.839637536904167</v>
+        <v>7.839637536954189</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.56754266583569</v>
+        <v>27.56754266581114</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.96834744584073</v>
+        <v>33.9683474458587</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.624112144868565</v>
+        <v>3.624112144899033</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.35781702414291</v>
+        <v>25.35781702420987</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.62680571815391</v>
+        <v>30.62680571821007</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>12.67486284192633</v>
+        <v>12.67486284192383</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.44482310668077</v>
+        <v>36.44482310666918</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-5.984637973889942</v>
+        <v>-5.984637973852085</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.73396834386161</v>
+        <v>13.73396834385501</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.13439239719476</v>
+        <v>20.13439239715986</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-10.19090916920929</v>
+        <v>-10.19090916920224</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>11.53400326803485</v>
+        <v>11.53400326798097</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.80192535849115</v>
+        <v>16.80192535842737</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-1.14757649697712</v>
+        <v>-1.147576496968821</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.61304064642816</v>
+        <v>22.61304064643237</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.49291395703957</v>
+        <v>29.4929139570631</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.36737370406464</v>
+        <v>24.36737370409431</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.46200507197359</v>
+        <v>33.46200507204522</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.14301522184037</v>
+        <v>37.14301522188892</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>2.701590610695991</v>
+        <v>2.701590610708383</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.96194622908304</v>
+        <v>25.96194622914409</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.74907359297136</v>
+        <v>34.74907359300671</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-0.8132076700936004</v>
+        <v>-0.8132076700428961</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.91392541143803</v>
+        <v>18.91392541144224</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.31523821755168</v>
+        <v>25.31523821753986</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-5.030372863622272</v>
+        <v>-5.030372863669111</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.70238975015976</v>
+        <v>16.70238975016692</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.97188526669614</v>
+        <v>21.97188526664964</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>4.01935742035467</v>
+        <v>4.019357420374678</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.78848704311152</v>
+        <v>27.78848704309447</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.39105453074747</v>
+        <v>28.391054530761</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.2654743169813</v>
+        <v>23.26547431701984</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.3651576877249</v>
+        <v>32.36515768768614</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.04668358588272</v>
+        <v>36.0466835859133</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1.596604542122993</v>
+        <v>1.596604542133225</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.87018574472946</v>
+        <v>24.87018574473287</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.65593128880626</v>
+        <v>33.65593128881058</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>3.014880573437114</v>
+        <v>3.01488057342802</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.74329218265344</v>
+        <v>22.7432921826224</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.14543591528635</v>
+        <v>29.14543591527793</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1.197016100922308</v>
+        <v>-1.197016100934587</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.53765307361819</v>
+        <v>20.53765307361444</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.80722741299947</v>
+        <v>25.80722741298128</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.856325633468675</v>
+        <v>7.856325633437411</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.62683063941582</v>
+        <v>31.62683063943469</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.50874557188691</v>
+        <v>38.50874557185746</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.39151490321781</v>
+        <v>33.39151490328682</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.49129788861792</v>
+        <v>42.49129788861417</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.17510737920936</v>
+        <v>46.17510737920198</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.71720840372821</v>
+        <v>11.71720840373878</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.99388002168685</v>
+        <v>34.99388002166275</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.78099242818401</v>
+        <v>43.78099242818776</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.47009040237477</v>
+        <v>40.47009040241478</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.34606385418449</v>
+        <v>35.34606385424736</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.44587566392256</v>
+        <v>44.44587566389357</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.12724135915762</v>
+        <v>48.12724135915819</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.67562839336991</v>
+        <v>13.67562839336559</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.95093114756351</v>
+        <v>36.95093114758329</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>45.73632989202777</v>
+        <v>45.73632989201617</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.09082733862825</v>
+        <v>15.09082733862961</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.8205140111191</v>
+        <v>34.82051401112865</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.22239176986155</v>
+        <v>41.22239176984608</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.8820365458807</v>
+        <v>10.88203654586569</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.61818899258476</v>
+        <v>32.61818899251655</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.88752580344767</v>
+        <v>37.88752580346245</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.93637456690074</v>
+        <v>19.93637456695588</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.70821172414476</v>
+        <v>43.70821172411588</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.58987487014004</v>
+        <v>50.58987487013606</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>45.47419792573858</v>
+        <v>45.47419792571527</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>54.57410933185083</v>
+        <v>54.57410933181707</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.25775862671112</v>
+        <v>58.2577586267201</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.79832574580697</v>
+        <v>23.79832574578537</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.07671885351665</v>
+        <v>47.07671885351733</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>55.86348448549013</v>
+        <v>55.86348448546421</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.32543356297897</v>
+        <v>43.32543356299693</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.20164429653114</v>
+        <v>38.20164429657764</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.30147796347724</v>
+        <v>47.30147796352362</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>50.9830265644443</v>
+        <v>50.983026564441</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.53039051032302</v>
+        <v>16.53039051033928</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.80670120045507</v>
+        <v>39.80670120048758</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.59227744549476</v>
+        <v>48.5922774455333</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.94510092106585</v>
+        <v>17.94510092109347</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.67540744160654</v>
+        <v>37.67540744162723</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.0774918386423</v>
+        <v>44.07749183865788</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.73836869560178</v>
+        <v>13.73836869566454</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.4751870294718</v>
+        <v>35.47518702950238</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.74477130319629</v>
+        <v>40.74477130322676</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.79271266586325</v>
+        <v>22.79271266591293</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.56515660757834</v>
+        <v>46.56515660759688</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.44702494895223</v>
+        <v>53.44702494895269</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>48.33158529374892</v>
+        <v>48.33158529369139</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>57.43151856000709</v>
+        <v>57.43151856006337</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>61.11535071546446</v>
+        <v>61.11535071542887</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.65489469794337</v>
+        <v>26.65489469799873</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>49.9342957406737</v>
+        <v>49.9342957406961</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>58.72123886338223</v>
+        <v>58.72123886342736</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.66958957601533</v>
+        <v>34.66958957594439</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.54405467971386</v>
+        <v>29.54405467973421</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.64379301880599</v>
+        <v>38.64379301877212</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.32570298276012</v>
+        <v>42.32570298271544</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.873735040984645</v>
+        <v>7.873735041031711</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.14912350908056</v>
+        <v>31.14912350905759</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.93529401590349</v>
+        <v>39.93529401586052</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>9.29163593382653</v>
+        <v>9.291635933845743</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.02117046865733</v>
+        <v>29.02117046868553</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.42376288765043</v>
+        <v>35.42376288760984</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.083263868203137</v>
+        <v>5.083263868248498</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.81914001571359</v>
+        <v>26.81914001568096</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.08923111388499</v>
+        <v>32.08923111389375</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>14.13658734820429</v>
+        <v>14.13658734821634</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.90820070226364</v>
+        <v>37.90820070229195</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.79056112169697</v>
+        <v>44.79056112169242</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.6733758190497</v>
+        <v>39.67337581907005</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.77321378249196</v>
+        <v>48.77321378251504</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>52.45740726073844</v>
+        <v>52.45740726077936</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.99761925253718</v>
+        <v>17.99761925256606</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>41.27609815510091</v>
+        <v>41.2760981550651</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.06363550606177</v>
+        <v>50.06363550603085</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.255384548867898</v>
+        <v>2.255384548891659</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.97647568998896</v>
+        <v>21.97647569004979</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.3766577787679</v>
+        <v>28.37665777875414</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1.949011852431379</v>
+        <v>-1.949011852437518</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.77868223357799</v>
+        <v>19.77868223360516</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.0462668422759</v>
+        <v>25.04626684226738</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>7.094604385277041</v>
+        <v>7.094604385323311</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.85804291408347</v>
+        <v>30.85804291407608</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.7376420695884</v>
+        <v>37.73764206956919</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.61289867360524</v>
+        <v>32.61289867364503</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.70873960199658</v>
+        <v>41.70873960197282</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>45.38921274026661</v>
+        <v>45.38921274025229</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.94700968320759</v>
+        <v>10.94700968320099</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.20941718655565</v>
+        <v>34.20941718657578</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.99678510479357</v>
+        <v>42.99678510477789</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.417076128523679</v>
+        <v>7.417076128520609</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.14669426928988</v>
+        <v>27.1466942692576</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.54776458152044</v>
+        <v>33.54776458149691</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3.201784128175934</v>
+        <v>3.20178412817889</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.93732851804301</v>
+        <v>24.93732851803164</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.20648607373967</v>
+        <v>30.2064860737424</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.25179725387814</v>
+        <v>12.25179725388758</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.0237484721559</v>
+        <v>36.02374847216704</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>14.32754769416268</v>
+        <v>14.32754769423362</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.04991384535818</v>
+        <v>34.0499138453459</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.44982994788332</v>
+        <v>40.44982994794789</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.12625672644159</v>
+        <v>10.12625672645057</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.85543405411075</v>
+        <v>31.8554340541344</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.12278112811482</v>
+        <v>37.12278112813244</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.17086893299889</v>
+        <v>19.17086893294284</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.93563954829274</v>
+        <v>42.93563954828853</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.81498691242014</v>
+        <v>49.81498691241002</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.69179732175083</v>
+        <v>44.69179732175105</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>53.787766714184</v>
+        <v>53.78776671419617</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.46807965499211</v>
+        <v>57.46807965497767</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.02434263637197</v>
+        <v>23.02434263632991</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.28847153385455</v>
+        <v>46.28847153384898</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>55.07549262748337</v>
+        <v>55.07549262747746</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.49249859073196</v>
+        <v>19.49249859068228</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.2233918976104</v>
+        <v>39.22339189757379</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.62419621748707</v>
+        <v>45.62419621747149</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>15.28031256400262</v>
+        <v>15.28031256400785</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.01734034608747</v>
+        <v>37.01734034610202</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.28626036234262</v>
+        <v>42.28626036237104</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>24.33132191362127</v>
+        <v>24.3313219136539</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>48.10460538480034</v>
+        <v>48.10460538481807</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.17945016992845</v>
+        <v>17.17945016993845</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.90243615559821</v>
+        <v>36.90243615560628</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>43.30255889673454</v>
+        <v>43.30255889676978</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.98021764580547</v>
+        <v>12.98021764582809</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.71006084463245</v>
+        <v>34.71006084462336</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>39.97765538052779</v>
+        <v>39.97765538050881</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.02483568967269</v>
+        <v>22.02483568967076</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.79021307338526</v>
+        <v>45.79021307338697</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.66976563723536</v>
+        <v>52.66976563724388</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.5468135724163</v>
+        <v>47.5468135724587</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.64280486826131</v>
+        <v>56.64280486830303</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>60.32330069939901</v>
+        <v>60.32330069943073</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.87854039722523</v>
+        <v>25.87854039726422</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>49.14367722855282</v>
+        <v>49.14367722859818</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>57.93087579791764</v>
+        <v>57.93087579793219</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.34553039152509</v>
+        <v>22.34553039153873</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>42.0770435540821</v>
+        <v>42.07704355409756</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>48.4780545566983</v>
+        <v>48.47805455666715</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.13540300782775</v>
+        <v>18.13540300788857</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.87309668605174</v>
+        <v>39.87309668608812</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.14226420633072</v>
+        <v>45.14226420631992</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.18641824222614</v>
+        <v>27.18641824221159</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.96030850474126</v>
+        <v>50.96030850477946</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>8.527958662948283</v>
+        <v>8.527958663042075</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.25017266669825</v>
+        <v>28.25017266671928</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.65080343547284</v>
+        <v>34.65080343551683</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.327086694364613</v>
+        <v>4.327086694392012</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.05598767725128</v>
+        <v>26.05598767725776</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.3240890354095</v>
+        <v>31.32408903542758</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.3706844648611</v>
+        <v>13.37068446486656</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.13523127576134</v>
+        <v>37.13523127575134</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.0152759182542</v>
+        <v>44.01527591827785</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.89057831606051</v>
+        <v>38.89057831611451</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.98647427920783</v>
+        <v>47.98647427920146</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.66733144532732</v>
+        <v>51.66733144532743</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>17.22323916499916</v>
+        <v>17.2232391650103</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.48745389906578</v>
+        <v>40.4874538990742</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.27524674424701</v>
+        <v>49.27524674428317</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>13.69156430915799</v>
+        <v>13.69156430917174</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.42230537842495</v>
+        <v>33.42230537838221</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.82382446037452</v>
+        <v>39.8238244603826</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.479797019344648</v>
+        <v>9.479797019308382</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.21654838466766</v>
+        <v>31.21654838464788</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.48622277559885</v>
+        <v>36.48622277555917</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.52979176613822</v>
+        <v>18.52979176614038</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.30285133483558</v>
+        <v>42.3028513348266</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.90457632666319</v>
+        <v>42.90457632663875</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.77983933844082</v>
+        <v>37.77983933841809</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>46.88078746316462</v>
+        <v>46.88078746314007</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>50.5621601420997</v>
+        <v>50.56216014208947</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.10941391892159</v>
+        <v>16.10941391890022</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.38685478329701</v>
+        <v>39.38685478328996</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>48.17326501189366</v>
+        <v>48.17326501182431</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.51739707639304</v>
+        <v>17.51739707636223</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.24941648577506</v>
+        <v>37.2494164857023</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>43.65176645592892</v>
+        <v>43.6517664558847</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.31089933208337</v>
+        <v>13.31089933218307</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.04955710460725</v>
+        <v>35.04955710457382</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.31931022412205</v>
+        <v>40.31931022414058</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.36450535374634</v>
+        <v>22.36450535373531</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>46.13894014201306</v>
+        <v>46.13894014199941</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>53.02102593017158</v>
+        <v>53.02102593019477</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.90463923542309</v>
+        <v>47.90463923537568</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>57.00568704733332</v>
+        <v>57.00568704729444</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>60.68934328377618</v>
+        <v>60.68934328372184</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.22877685943429</v>
+        <v>26.22877685941451</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.50930806984475</v>
+        <v>49.50930806984839</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>58.29708531471654</v>
+        <v>58.29708531470881</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.98518144327313</v>
+        <v>54.98518144325313</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>49.86199818705093</v>
+        <v>49.86199818704058</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>58.96307477099863</v>
+        <v>58.96307477099488</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.64428721539203</v>
+        <v>62.64428721537645</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.1900070083055</v>
+        <v>28.19000700832551</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.46916949579595</v>
+        <v>51.46916949578277</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>60.25523288001939</v>
+        <v>60.25523288000643</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.59491277778507</v>
+        <v>29.59491277769878</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>49.3282073333781</v>
+        <v>49.32820733332444</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.73029128845253</v>
+        <v>55.73029128843571</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.39152111367817</v>
+        <v>25.39152111368908</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.13166224180925</v>
+        <v>47.13166224182335</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.40117779469922</v>
+        <v>52.40117779471014</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.44612352401028</v>
+        <v>34.44612352402392</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>58.22189055245038</v>
+        <v>58.22189055247584</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.10372451285009</v>
+        <v>65.10372451281917</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.98889160821916</v>
+        <v>59.98889160821189</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>69.09006786187531</v>
+        <v>69.09006786183075</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>72.77356387080484</v>
+        <v>72.77356387084758</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.31146347966371</v>
+        <v>38.31146347963154</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>61.59371625112631</v>
+        <v>61.59371625113995</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>70.38114667676105</v>
+        <v>70.38114667680925</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.84108980696347</v>
+        <v>57.84108980691049</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>52.71814381032398</v>
+        <v>52.71814381038992</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.81924226262375</v>
+        <v>61.81924226263739</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>65.50063762303473</v>
+        <v>65.50063762304178</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.04533426463918</v>
+        <v>31.04533426461281</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>54.32550472622627</v>
+        <v>54.32550472619148</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>63.11174562252411</v>
+        <v>63.11174562253662</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>32.44975144974747</v>
+        <v>32.44975144974929</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>52.1836658857912</v>
+        <v>52.18366588583986</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>58.58595648682281</v>
+        <v>58.58595648686465</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.24841846460216</v>
+        <v>28.248418464605</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>49.98922550825849</v>
+        <v>49.98922550825405</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.25898853041447</v>
+        <v>55.25898853041265</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>37.30302686196292</v>
+        <v>37.30302686201681</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>61.0794007072122</v>
+        <v>61.07940070729315</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.96143987051887</v>
+        <v>67.96143987055571</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>62.8468442333902</v>
+        <v>62.84684423336269</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>71.94804235782028</v>
+        <v>71.94804235777481</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>75.63172123755187</v>
+        <v>75.63172123754119</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>41.16859764690953</v>
+        <v>41.16859764688134</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>64.45185839153665</v>
+        <v>64.45185839156575</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>73.23946631945928</v>
+        <v>73.2394663194702</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.18412476643284</v>
+        <v>49.18412476645388</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.0594330418614</v>
+        <v>44.05943304184218</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>53.16043615592703</v>
+        <v>53.16043615588246</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>56.84219292539883</v>
+        <v>56.84219292535791</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.38755767986955</v>
+        <v>22.38755767990081</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.66680589188509</v>
+        <v>45.66680589190544</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.45364111592899</v>
+        <v>54.45364111594445</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.79516558566634</v>
+        <v>23.79516558566657</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>43.52830799006513</v>
+        <v>43.52830799008548</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.93110666635899</v>
+        <v>49.93110666635739</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.59219265565976</v>
+        <v>19.59219265563941</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.33205746622419</v>
+        <v>41.3320574662376</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.60232736072676</v>
+        <v>46.60232736066321</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.64578048779329</v>
+        <v>28.64578048775589</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.42132369412941</v>
+        <v>52.42132369414453</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.30385498844846</v>
+        <v>59.30385498843607</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>54.18751360556151</v>
+        <v>54.18751360552888</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.28861641683223</v>
+        <v>63.2886164168328</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>66.97265666584651</v>
+        <v>66.97265666579956</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>32.51020108450764</v>
+        <v>32.51020108452833</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.79253966172458</v>
+        <v>55.79253966168751</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>64.58074188380586</v>
+        <v>64.58074188383223</v>
       </c>
     </row>
   </sheetData>
